--- a/artifacts/recipes/new_data/allrecipescom/vegan/vegan_desserts.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/vegan/vegan_desserts.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699656341-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Vegan Desserts</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699656346-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HAQn2O5_f4cxoHEGKjfFHuckLkg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1631x0:1633x2):format(webp)/7799752-13f97f6a963f4ac4b8b0f445fd5a93bb.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273228/vegan-oatmeal-raisin-cookies/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Vegan Oatmeal Raisin Cookies</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n36 \n\n\nYield:\n3 dozen"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup shortening\n\n\n1 cup light brown sugar\n\n\n½ cup white sugar\n\n\n2 teaspoons vanilla extract\n\n\n½ cup vanilla-flavored soy milk\n\n\n1 cup all-purpose flour\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground nutmeg\n\n\n3 cups rolled oats\n\n\n1 cup chopped walnuts\n\n\n1 cup raisins"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup shortening\n\n\n1 cup light brown sugar\n\n\n½ cup white sugar\n\n\n2 teaspoons vanilla extract\n\n\n½ cup vanilla-flavored soy milk\n\n\n1 cup all-purpose flour\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground nutmeg\n\n\n3 cups rolled oats\n\n\n1 cup chopped walnuts\n\n\n1 cup raisins'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Beat shortening, brown sugar, white sugar, and vanilla extract together in a large bowl until smooth. Mix in soy milk until well combined."},{"recipe_directions":"Mix flour, cinnamon, baking soda, salt, and nutmeg together in a separate bowl. Pour over the sugar mixture and mix well. Fold in oats, walnuts, and raisins; cookie dough will be thick."},{"recipe_directions":"Scoop out tablespoon-sized balls of dough and drop onto cookie sheets. Press down slightly to flatten cookies."},{"recipe_directions":"Bake in the preheated oven until edges are golden, 12 to 15 minutes. Cool on the cookie sheets for 2 minutes before removing to cooling racks."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Oatmeal Cookie Recipes"},{"recipe_tags":"Oatmeal Raisin Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"145\nCalories\n\n\n7g \nFat\n\n\n20g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699656349-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aHRDAwA_hejDDr9M2n_DrESLPKM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1919x0:1921x2):format(webp)/6077127-e0defd954aa7479daf1590362dc3d960.jpg"
@@ -266,59 +603,55 @@
 Christmas Tree Fruit Platter</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/269402/christmas-tree-fruit-platter/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Christmas Tree Fruit Platter</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound green grapes\n\n\n4 large kiwis, peeled and sliced\n\n\n4  fresh strawberries, trimmed and sliced\n\n\n½ cup pomegranate seeds\n\n\n½  fresh pineapple, peeled and sliced\n\n\n6  dried dates"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound green grapes\n\n\n4 large kiwis, peeled and sliced\n\n\n4  fresh strawberries, trimmed and sliced\n\n\n½ cup pomegranate seeds\n\n\n½  fresh pineapple, peeled and sliced\n\n\n6  dried dates'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Create an outline of a tree shape using the grapes on a cutting board or serving platter. Begin at the top point of the tree and fan the grapes out into a triangular pattern. Create 3 triangular sections, each slightly larger than the last. Fill in each section with kiwi slices."},{"recipe_directions":"Arrange sliced strawberries across the tree shape to create a garland effect. Add pomegranate seeds randomly all over the arranged fruit to look like ornaments."},{"recipe_directions":"Place pineapple slices onto a cutting board. Use small cookie cutters to cut out a star shape and some several small ornament shapes. Place the star at the top of the tree shape, and decorate the rest of the tree with the pineapple ornaments."},{"recipe_directions":"Arrange dates at the bottom of the tree to look like a trunk. Serve immediately, or keep refrigerated until ready to serve."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Strawberry Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"184\nCalories\n\n\n1g \nFat\n\n\n47g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699656353-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8ECGNUjcAFrIXYggUHpUJj6ThGY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/37438-cbae77ab47404614a31b5481ac614ee4.jpg"
@@ -331,59 +664,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/131067/vegan-gelatin/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Vegan Gelatin</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 10 mins\n\n\nServings:\n12 \n\n\nYield:\n1 pint"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ teaspoon cornstarch\n\n\n1 teaspoon water\n\n\n2 cups cherry juice\n\n\n1 teaspoon agar-agar"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ teaspoon cornstarch\n\n\n1 teaspoon water\n\n\n2 cups cherry juice\n\n\n1 teaspoon agar-agar'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve the cornstarch in the water in a small cup or bowl and set aside. In a saucepan, combine 1 1/2 cups of cherry juice and agar-agar powder. Let stand for 5 minutes to soften. Set heat to medium-high and bring to a simmer. Simmer for 1 minute."},{"recipe_directions":"Remove from the heat and stir in the remaining juice along with the cornstarch mixture until no longer cloudy. Pour into small serving cups and refrigerate for 4 hours before serving."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Specialty Dessert Recipes"},{"recipe_tags":"Dessert Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"26\nCalories\n\n\n7g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699656356-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tgAYklCNUU538Fym9SodY_w6f2I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/850468-202085ea5df64d68bcb9e796128e58e9.jpg"
@@ -396,59 +725,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24370/easy-chocolate-tofu-pie/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Easy Chocolate Tofu Pie</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound silken tofu\n\n\n½ cup unsweetened cocoa powder\n\n\n1 cup white sugar\n\n\n1 tablespoon vanilla extract\n\n\n½ teaspoon cider vinegar\n\n\n1 (9 inch) prepared graham cracker crust"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound silken tofu\n\n\n½ cup unsweetened cocoa powder\n\n\n1 cup white sugar\n\n\n1 tablespoon vanilla extract\n\n\n½ teaspoon cider vinegar\n\n\n1 (9 inch) prepared graham cracker crust'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Blend tofu with an electric mixer or in a food processor until smooth. Blend in cocoa, sugar, vanilla and vinegar. Pour into prepared crust."},{"recipe_directions":"Bake in preheated oven for 25 minutes."},{"recipe_directions":"Refrigerate for 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"},{"recipe_tags":"Protein"},{"recipe_tags":"Tofu"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"293\nCalories\n\n\n10g \nFat\n\n\n49g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699656359-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/d6uhySOOqglgLpfmoxmf82bvYmY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/ABC-Pudding-Avocado-Banana-Chocolate-Delight-by-Melissa-Goff-2823ae89f49b451196458f41de681df1.jpg"
@@ -460,59 +785,55 @@
 9 Vegan Pudding Recipes That Don't Taste Plant-Based</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/vegan-pudding-recipes/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>9 Vegan Pudding Recipes That Don't Taste Plant-Based</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Delightfully creamy and rich, these recipes prove a delicious vegan pudding is possible. Whether you choose chocolate, vanilla, or banana, you'll find these dairy- and egg-free recipes based on ingredients like almond milk, tofu, and even avocado to create a perfectly silky texture. Enjoy these vegan puddings on their own, as a decadent cake filling, or as part of an impressive trifle."},{"recipe_directions":"Embracing the classic stovetop method, this chocolate pudding is made from a base of soy milk, cornstarch, sugar, and cocoa powder to create an irresistibly creamy dessert."},{"recipe_directions":"A few spoonfuls of peanut butter powder lend a rich nutty flavor to this vegan pudding. Can't get enough peanut butter? Recipe creator thedailygourmet suggests adding a dash of peanut butter flavoring to really elevate the dish."},{"recipe_directions":"Speckled with pieces of real vanilla bean, this vegan-friendly pudding makes for an impressive dessert. Serve with a spoonful of dairy-free whipped topping or a sprinkling of diced fresh fruit."},{"recipe_directions":"This recipe is as easy as ABC. Simply blend together ripe avocados and bananas with unsweetened cocoa powder to create a wholesome pudding."},{"recipe_directions":"Easily satisfy your sweet tooth with this simple vegan chocolate pudding. If you'd like a mocha spin on the tasty dessert, recipe creator Phaewryn suggests adding a tablespoon or two of instant coffee granules."},{"recipe_directions":"Don't let the veggie-based recipe title throw you off. This decadent pudding has all the taste of your favorite carrot cake, but in pudding form. Shredded carrots, walnuts, and raisins add texture while cinnamon, ginger, and allspice amp up the flavor."},{"recipe_directions":"It doesn't get much easier than this entirely raw vegan pudding. Simply blend all the ingredients together and chill for a silky smooth treat."},{"recipe_directions":"The secret ingredient behind this plant-based pudding is a whole sweet potato. Not only does it add great texture, its natural flavor pairs well with the other ingredients, like cocoa powder and almond milk."},{"recipe_directions":"The word \"tofu\" may scare away some chocolate lovers, but we promise you can't taste any soy once this rich dessert is whipped up. Between the banana, cocoa powder, and hint of cinnamon, you'll never know that it contains an entire block of silken tofu."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Desserts"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699656362-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TJHnpaibER-y0XBsBlZUvtI20Wc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1936x0:1938x2):format(webp)/9356489-ade5de4cfc6a41769effd4342a73fcd8.jpg"
@@ -525,59 +846,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263727/vegan-mug-cake/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Vegan Mug Cake</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n3 mins\n\n\nTotal Time:\n8 mins\n\n\nServings:\n1 \n\n\nYield:\n1 mug cake"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 tablespoons all-purpose flour\n\n\n3 tablespoons white sugar\n\n\n2 tablespoons unsweetened cocoa powder\n\n\n¼ teaspoon baking powder\n\n\n4 tablespoons applesauce\n\n\n3 tablespoons soy milk\n\n\n1 tablespoon vegan chocolate chips, or more to taste\n\n\n1 tablespoon toasted flaked coconut (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 tablespoons all-purpose flour\n\n\n3 tablespoons white sugar\n\n\n2 tablespoons unsweetened cocoa powder\n\n\n¼ teaspoon baking powder\n\n\n4 tablespoons applesauce\n\n\n3 tablespoons soy milk\n\n\n1 tablespoon vegan chocolate chips, or more to taste\n\n\n1 tablespoon toasted flaked coconut (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine flour, sugar, cocoa powder, and baking powder in a mug. Stir applesauce and soy milk together in a bowl and add to flour mixture. Stir until well combined. Fold in chocolate chips and sprinkle with coconut."},{"recipe_directions":"Microwave at the highest setting until mug cake has set and risen well, about 3 minutes."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cakes"},{"recipe_tags":"Mug Cake Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"449\nCalories\n\n\n13g \nFat\n\n\n87g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699656365-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/stbE4cL8uwhFX-Mo3NIwkG8CRNo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/9191402-5528d61410cd4c54bb2faa89e680b83d.jpg"
@@ -590,59 +907,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284216/becel-oatmeal-chocolate-chip-cookies/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Becel® Oatmeal Chocolate Chip Cookies</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n8 mins\n\n\nAdditional Time:\n2 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n65 \n\n\nYield:\n65 cookies"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups all-purpose flour\n\n\n1 ½ cups quick oats\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n  1 cup (2 sticks) Becel® salted margarine sticks\n\n\n1 ¼ cups light brown sugar\n\n\n1 large egg\n\n\n1 teaspoon vanilla extract\n\n\n1 cup semi-sweet chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups all-purpose flour\n\n\n1 ½ cups quick oats\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n  1 cup (2 sticks) Becel® salted margarine sticks\n\n\n1 ¼ cups light brown sugar\n\n\n1 large egg\n\n\n1 teaspoon vanilla extract\n\n\n1 cup semi-sweet chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees ). Combine flour, oats, baking soda, and salt in medium bowl; set aside."},{"recipe_directions":"Beat Becel® Sticks with brown sugar in large bowl with electric mixer until creamy, about 3 minutes. Beat in egg and vanilla until blended. Gradually beat in flour mixture just until blended. Stir in chocolate chips. Drop dough by tablespoonfuls on ungreased baking sheets, 2 inches (5 cm) apart."},{"recipe_directions":"Bake just until edges are golden, about 8 minutes. Cool sheets 2 minutes on wire rack; remove cookies from sheets and cool completely."},{"recipe_directions":"Feel free to use old fashioned oats instead of quick oats and unsalted margarine sticks instead of salted margarine sticks."},{"recipe_directions":"For a spin on our Oatmeal Chocolate Chip Cookies, increase oatmeal to 3-1/2 cups (875 mL), bake them as bowls, and fill them with milk, fruit, low-fat frozen yogurt, or anything else you can imagine!"},{"recipe_directions":"To bake as bowls, spray muffin pans with no-stick baking spray. Press 2 Tbsp (30 mL) cookie dough in bottom and up sides of each muffin cup. Bake 8 minutes or until golden brown. Let cool in pans 1 minute, then carefully remove and cool completely on wire racks. Makes 42 \"cookie cups\"."},{"recipe_directions":"The metric measures for this recipes are as follows: 375 mL all-purpose flour, 375 mL quick oats, 5 mL baking soda, 2 mL salt, 250 mL Becel® salted margarine sticks, 300 mL light brown sugar, 5 mL vanilla extract, and 250 mL semi-sweet chocolate chips."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Desserts"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"40\nCalories\n\n\n1g \nFat\n\n\n8g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699656368-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Fw6PDPzogsMNl5tS4siltg4ZUZ8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1862x0:1864x2):format(webp)/8320802-e5620c2ca3ab4b83a98e359d8095f449.jpg"
@@ -653,59 +966,55 @@
 Cherry-Berry Coulis</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280930/cherry-berry-coulis/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Cherry-Berry Coulis</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n6 \n\n\nYield:\n3 /4 cup coulis"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups frozen berries and cherries\n\n\n2 tablespoons white sugar\n\n\n1 dash salt\n\n\n1 teaspoon lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups frozen berries and cherries\n\n\n2 tablespoons white sugar\n\n\n1 dash salt\n\n\n1 teaspoon lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine frozen fruit, sugar, and salt in a saucepan over medium heat. Stir to combine, and heat until fruit is thawed and just warmed through, about 5 minutes. Do not boil."},{"recipe_directions":"Transfer to the bowl of a small food processor. Blend until smooth, 15 to 20 seconds."},{"recipe_directions":"Strain mixture using a fine-mesh strainer, pressing solids with the back of a spoon. Stir lemon juice into the coulis and serve."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Lemon Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"62\nCalories\n\n\n0g \nFat\n\n\n16g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699656371-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yU3FSKfgQDJn2wd6OOYCny3ud2c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1590x0:1592x2):format(webp)/5241227-362ab6da3c8b492bb76bd779d1e239ec.jpg"
@@ -718,59 +1027,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242336/tofu-green-tea-ice-cream/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Tofu Green Tea Ice Cream</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n40 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (12 ounce) package silken soft tofu, drained\n\n\n1 cup unsweetened soy milk\n\n\n1 cup white sugar, or to taste\n\n\n¼ cup green tea powder (matcha)\n\n\n2 tablespoons canola oil"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (12 ounce) package silken soft tofu, drained\n\n\n1 cup unsweetened soy milk\n\n\n1 cup white sugar, or to taste\n\n\n¼ cup green tea powder (matcha)\n\n\n2 tablespoons canola oil'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend tofu in a blender or food processor until smooth; add soy milk, sugar, green tea powder, and canola oil and blend until combined."},{"recipe_directions":"Pour mixture into bowl of ice cream maker; freeze according to manufacturers directions."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"},{"recipe_tags":"Protein"},{"recipe_tags":"Tofu"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"361\nCalories\n\n\n12g \nFat\n\n\n57g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699656374-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sCkKVm5YcM00Hx57lBFoWbLFnqU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(935x0:937x2):format(webp)/Easy-Blueberry-Coulis-Yoly-f54c31aac63847d09bbfa975a6d83348.jpg"
@@ -784,59 +1089,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280934/easy-blueberry-coulis/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Easy Blueberry Coulis</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n1 /4 cup blueberry coulis"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups frozen blueberries, thawed\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon freshly squeezed lemon juice\n\n\n1  lemon, zested\n\n\n1 tablespoon water\n\n\n½ tablespoon cornstarch\n\n\n2 teaspoons brandy-based orange liqueur (such as Grand Marnier®)"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups frozen blueberries, thawed\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon freshly squeezed lemon juice\n\n\n1  lemon, zested\n\n\n1 tablespoon water\n\n\n½ tablespoon cornstarch\n\n\n2 teaspoons brandy-based orange liqueur (such as Grand Marnier®)'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine blueberries, sugar, lemon juice, and zest in a small pot and bring to a simmer over medium heat. Cook, stirring frequently, for 5 minutes."},{"recipe_directions":"Stir water and cornstarch together in a small bowl and add slurry to the pot. Cook until the mixture thickens, about 30 seconds."},{"recipe_directions":"Remove the pot from the burner and stir in orange liqueur. Pour coulis into a fine-mesh strainer and use the back of a spoon to force the liquid through. Serve hot or cold."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Lemon Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"154\nCalories\n\n\n1g \nFat\n\n\n36g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699656377-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NYaJKyKQ8MUrvh38UwrOrdYn7fw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1037234-326be41612a648dd97d4e8c40c75fefa.jpg"
@@ -849,59 +1150,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215016/triple-chocolate-tofu-brownies/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Triple Chocolate Tofu Brownies</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n12 \n\n\nYield:\n1 8-inch square pan"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup whole wheat flour\n\n\n¼ teaspoon baking soda\n\n\n¼ cup cocoa powder\n\n\n⅛ teaspoon salt\n\n\n½ (12 ounce) package silken tofu, drained\n\n\n¼ cup olive oil\n\n\n1 cup white sugar\n\n\n4 teaspoons vanilla extract\n\n\n4 (1 ounce) squares bittersweet chocolate, chopped\n\n\n½ cup dark chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup whole wheat flour\n\n\n¼ teaspoon baking soda\n\n\n¼ cup cocoa powder\n\n\n⅛ teaspoon salt\n\n\n½ (12 ounce) package silken tofu, drained\n\n\n¼ cup olive oil\n\n\n1 cup white sugar\n\n\n4 teaspoons vanilla extract\n\n\n4 (1 ounce) squares bittersweet chocolate, chopped\n\n\n½ cup dark chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an oven to 350 degrees F (175 degrees C). Grease an 8-inch square pan. Combine flour, baking soda, cocoa powder, and salt in a bowl."},{"recipe_directions":"Place the tofu into a blender. Cover, and puree until smooth. Add the olive oil and sugar. Blend for 1 more minute; pour into a mixing bowl and stir in the vanilla extract."},{"recipe_directions":"Melt the chocolate in the top of a double boiler over just-barely simmering water, stirring frequently and scraping down the sides with a rubber spatula to avoid scorching. Mix the melted chocolate into the tofu mixture until well blended. Stir in flour mixture until thoroughly combined, about 3 minutes. Fold in the chocolate chips."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center comes out clean, about 30 minutes. Cool before slicing into bars."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"},{"recipe_tags":"Protein"},{"recipe_tags":"Tofu"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"234\nCalories\n\n\n11g \nFat\n\n\n34g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699656380-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4V_MHpMdhk353xz9WNiX8IA1_7U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1208x0:1210x2):format(webp)/9444409-8833b8432544475a9924ac8e230c6f51.jpg"
@@ -914,59 +1211,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241170/oatmeal-energy-bars/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Oatmeal Energy Bars</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n24 \n\n\nYield:\n24 servings"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ⅓ cups rolled oats\n\n\n½ cup all-purpose flour\n\n\n½ cup vegan semi-sweet chocolate chips\n\n\n½ cup ground unsalted cashews\n\n\n2 tablespoons shelled unsalted sunflower seeds\n\n\n1 tablespoon ground flax meal\n\n\n1 tablespoon wheat germ\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon sea salt\n\n\n½ cup honey, warmed\n\n\n⅓ cup almond butter\n\n\n½ teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ⅓ cups rolled oats\n\n\n½ cup all-purpose flour\n\n\n½ cup vegan semi-sweet chocolate chips\n\n\n½ cup ground unsalted cashews\n\n\n2 tablespoons shelled unsalted sunflower seeds\n\n\n1 tablespoon ground flax meal\n\n\n1 tablespoon wheat germ\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon sea salt\n\n\n½ cup honey, warmed\n\n\n⅓ cup almond butter\n\n\n½ teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Line a 9x11-inch baking dish with aluminum foil."},{"recipe_directions":"Whisk oats, flour, chocolate chips, ground cashews, sunflower seeds, flax meal, wheat germ, cinnamon, and sea salt together in a large shallow bowl."},{"recipe_directions":"Stir warmed honey, almond butter, and vanilla extract together in a bowl until well-mixed. Pour honey mixture into oat mixture; stir until batter is well-combined. Turn batter out into prepared baking dish. Lay a sheet of waxed paper over batter and press firmly to evenly distribute in the baking dish. Remove and discard waxed paper."},{"recipe_directions":"Bake in the preheated oven until golden and fragrant, about 12 minutes. Pull aluminum foil from baking dish and cool bars in the aluminum foil for 10 minutes; remove and discard aluminum foil. Cut into bars."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Granola Bar Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"116\nCalories\n\n\n6g \nFat\n\n\n16g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699656383-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/N8YpDwMkZuKmKHzNy34WkYB7MQ4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/9414064-7abf582ffdd743a3969e5e41882c922e.jpg"
@@ -979,59 +1272,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261700/vegan-butternut-squash-soup-with-ginger-apple-and-coconut-milk/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Vegan Butternut Squash Soup</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1 small onion, chopped\n\n\n1 (1 1/2 inch) piece fresh ginger root, minced\n\n\n1  butternut squash - peeled, seeded, and cut into 1/2-inch cubes\n\n\n1  carrot, chopped\n\n\n1  apple - peeled, cored, and chopped\n\n\n4 cups vegetable broth\n\n\n1 (14 ounce) can coconut milk\n\n\n  salt and freshly ground pepper to taste\n\n\n1 small lemon, juiced\n\n\n1 teaspoon maple syrup, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1 small onion, chopped\n\n\n1 (1 1/2 inch) piece fresh ginger root, minced\n\n\n1  butternut squash - peeled, seeded, and cut into 1/2-inch cubes\n\n\n1  carrot, chopped\n\n\n1  apple - peeled, cored, and chopped\n\n\n4 cups vegetable broth\n\n\n1 (14 ounce) can coconut milk\n\n\n  salt and freshly ground pepper to taste\n\n\n1 small lemon, juiced\n\n\n1 teaspoon maple syrup, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large pot over low heat. Add onion and ginger; cook and stir until soft and translucent without browning onion, about 10 minutes. Add butternut squash and carrot; cook and stir, about 3 minutes. Add apple and cook for 2 minutes. Pour in broth, increase heat to medium, and bring to a boil. Reduce heat to low and simmer until vegetables are soft, about 20 minutes. Puree soup with an immersion blender until smooth."},{"recipe_directions":"Puree soup with an immersion blender until smooth."},{"recipe_directions":"Pour in coconut milk and season with salt and pepper. Add lemon juice and maple syrup; stir until heated through, 2 to 3 minutes."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Squash Soup Recipes"},{"recipe_tags":"Butternut Squash Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"403\nCalories\n\n\n25g \nFat\n\n\n48g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699656386-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/p4sNOgugc9DIYqWOmX-3EQANM6I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8420076-9e239f1140e841c3ae41c753135eb386.jpg"
@@ -1044,59 +1333,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246034/vegan-chocolate-fudge-cookies/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Vegan Chocolate Fudge Cookies</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n18 \n\n\nYield:\n18 cookies"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup whole wheat flour\n\n\n¼ teaspoon baking soda\n\n\n⅛ teaspoon salt\n\n\n⅔ cup white sugar\n\n\n⅓ cup brown sugar\n\n\n⅓ cup mashed banana\n\n\n7 tablespoons unsweetened cocoa powder\n\n\n5 tablespoons coconut oil"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup whole wheat flour\n\n\n¼ teaspoon baking soda\n\n\n⅛ teaspoon salt\n\n\n⅔ cup white sugar\n\n\n⅓ cup brown sugar\n\n\n⅓ cup mashed banana\n\n\n7 tablespoons unsweetened cocoa powder\n\n\n5 tablespoons coconut oil'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Mix flour, baking soda, and salt together in a bowl."},{"recipe_directions":"Combine both sugars in a saucepan with mashed banana. Set over low heat and stir in cocoa powder and coconut oil. Cook and stir until blended and smooth, about 5 minutes."},{"recipe_directions":"Add flour mixture to the pan and stir until a smooth dough forms. Drop spoonfuls of dough 2 inches apart onto ungreased baking sheets."},{"recipe_directions":"Bake in the preheated oven until edges are golden, about 8 minutes."},{"recipe_directions":"Remove from the oven and cool on a wire rack."},{"recipe_directions":"If you want a non-vegan version, use yogurt in place of mashed banana."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Banana Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"108\nCalories\n\n\n4g \nFat\n\n\n18g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699656389-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FPaBiUOxiXunIUMQqTFRcayyR4w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/241983-c99de29b51524b38a2f0101c6522bb87.jpg"
@@ -1109,59 +1394,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/161118/basil-lime-sorbet/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Basil Lime Sorbet</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs 10 mins\n\n\nTotal Time:\n 2 hrs 35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup sugar\n\n\n1 cup water\n\n\n¾ cup fresh lime juice\n\n\n20  fresh basil leaves, minced"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup sugar\n\n\n1 cup water\n\n\n¾ cup fresh lime juice\n\n\n20  fresh basil leaves, minced'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make a simple syrup by bringing sugar and water to a boil in a small saucepan. Allow to boil for 1 minute, then remove from the heat. Let cool for about 10 minutes."},{"recipe_directions":"Purée cooled simple syrup, lime juice, and basil in a blender. Pour into a container, cover, and place into the freezer until completely frozen, about 2 hours."},{"recipe_directions":"Break the frozen mixture into pieces and place back into the blender. Blend until smooth. Return to the container, cover, and store in the freezer until ready to serve."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Frozen Dessert Recipes"},{"recipe_tags":"Sorbet Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"205\nCalories\n\n\n0g \nFat\n\n\n54g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699656392-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ifDyXvjf4rpo1B5FntnUg_rIAbg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1255x0:1257x2):format(webp)/7291534-8a1f485c9aea4738ae0c4a82d4c342f5.jpg"
@@ -1174,59 +1455,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/255858/vegan-apple-pie/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Vegan Apple Pie</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n50 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n8 \n\n\nYield:\n1 9-inch pie"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ⅓ cups all-purpose flour\n\n\n1 cup vegan margarine (such as Earth Balance®)\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon salt\n\n\n¼ cup ice water"},{"recipe_ingredients":"1 cup brown sugar\n\n\n½ cup vegan margarine (such as Earth Balance®)\n\n\n¼ cup white sugar\n\n\n¼ cup rice milk\n\n\n3 tablespoons all-purpose flour\n\n\n2 teaspoons ground cinnamon\n\n\n½ teaspoon ground nutmeg\n\n\n7  Granny Smith apples - peeled, cored, and sliced"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ⅓ cups all-purpose flour\n\n\n1 cup vegan margarine (such as Earth Balance®)\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon salt\n\n\n¼ cup ice water'}, {'recipe_ingredients': '1 cup brown sugar\n\n\n½ cup vegan margarine (such as Earth Balance®)\n\n\n¼ cup white sugar\n\n\n¼ cup rice milk\n\n\n3 tablespoons all-purpose flour\n\n\n2 teaspoons ground cinnamon\n\n\n½ teaspoon ground nutmeg\n\n\n7  Granny Smith apples - peeled, cored, and sliced'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine 2 1/3 cups all-purpose flour, 1 cup vegan margarine, 1 tablespoon white sugar, and salt in a food processor; pulse until mixture clumps together. Pour water in slowly and pulse a few times until a dough forms."},{"recipe_directions":"Transfer dough to a flat work surface; knead for 30 seconds and shape into a disk. Wrap with plastic wrap and refrigerate until firm, about 30 minutes."},{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C)."},{"recipe_directions":"Dust a flat work surface with flour. Roll dough out into two 10-inch crusts. Press 1 crust gently into a 9-inch pie plate."},{"recipe_directions":"Combine brown sugar, 1/2 cup vegan margarine, 1/4 cup white sugar, rice milk, 3 tablespoons flour, cinnamon, and nutmeg in a saucepan; cook and stir over medium heat until margarine melts and brown sugar is dissolved, 3 to 5 minutes."},{"recipe_directions":"Place apple slices in a large bowl. Pour brown sugar mixture on top; mix until apples are evenly coated. Pile apples into the bottom crust. Cover with second crust. Cut slits in the top crust with a sharp knife."},{"recipe_directions":"Bake in the preheated oven until crust is golden brown and apples are semitranslucent, 45 to 60 minutes."},{"recipe_directions":"Millet flour worked really well in crust and makes it gluten free."},{"recipe_directions":"Substitute water for rice milk if desired."},{"recipe_directions":"Brushing dough with vegan margarine and sprinkling sugar on top adds a pretty finishing touch."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Pies"},{"recipe_tags":"Apple Pie Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"642\nCalories\n\n\n34g \nFat\n\n\n81g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699656395-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NMa3PXjehd0bZ2vwA4iDet9U3Io=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2238658-fbc696abb47d4c2e8bb553274eae78fd.jpg"
@@ -1239,59 +1516,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219490/sweet-sticky-rice-with-mangoes/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Sweet Sticky Rice with Mangoes</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups uncooked glutinous (sticky) white rice, rinsed\n\n\n1 (13.5 ounce) can coconut milk, divided\n\n\n1 cup white sugar\n\n\n1 tablespoon white sugar\n\n\n¼ teaspoon salt\n\n\n¾ teaspoon cornstarch\n\n\n2  ripe mangoes, peeled and cubed"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups uncooked glutinous (sticky) white rice, rinsed\n\n\n1 (13.5 ounce) can coconut milk, divided\n\n\n1 cup white sugar\n\n\n1 tablespoon white sugar\n\n\n¼ teaspoon salt\n\n\n¾ teaspoon cornstarch\n\n\n2  ripe mangoes, peeled and cubed'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cover the rice with several inches of fresh water. Allow rice to stand for 30 minutes. Drain off water so that rice is covered by 1/4 inch of water."},{"recipe_directions":"Place the rice in a microwave oven, cover, and cook on High until the water has mostly absorbed but the rice is still wet, about 10 minutes; stir and cook until almost dry, an additional 4 minutes."},{"recipe_directions":"Mix half the coconut milk and 1 cup of sugar in a bowl, stirring to dissolve the sugar. Pour the mixture over the rice and stir to coat rice with the mixture. Cover and allow the rice to stand at room temperature for 20 minutes."},{"recipe_directions":"Pour the remaining 1/2 can of coconut milk into a saucepan and whisk in 1 tablespoon of sugar, salt, and cornstarch until smooth. Bring the mixture to a simmer over medium heat, whisking constantly, and simmer until thickened, about 2 minutes. Remove from heat and allow to cool."},{"recipe_directions":"To serve, scoop the rice into individual serving bowls and top each serving with about 2 tablespoons of the coconut sauce and several pieces of mango."},{"recipe_directions":"You can also steam the sweet rice using the traditional method. You may want to leave the salt out and taste the sauce before you add any."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Thai"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"525\nCalories\n\n\n14g \nFat\n\n\n96g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699656398-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lOaHP4p08P5S4zUkrZAgrEfenT4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/7222772-b224da99df5d42648f044e99a2cc9bec.jpg"
@@ -1304,59 +1577,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/216554/tofu-pumpkin-pie/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Tofu Pumpkin Pie</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n55 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs 5 mins\n\n\nServings:\n8 \n\n\nYield:\n1 9-inch pie"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) can pumpkin puree\n\n\n1 (10.5 ounce) package silken tofu, drained\n\n\n¾ cup white sugar\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground ginger\n\n\n¼ teaspoon ground cloves\n\n\n1 (9 inch) ready-to-use vegan pie crust"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) can pumpkin puree\n\n\n1 (10.5 ounce) package silken tofu, drained\n\n\n¾ cup white sugar\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground ginger\n\n\n¼ teaspoon ground cloves\n\n\n1 (9 inch) ready-to-use vegan pie crust'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"Blend pumpkin purée, tofu, pumpkin, sugar, cinnamon, salt, ginger, and cloves in a blender until smooth. Pour into pie crust."},{"recipe_directions":"Bake in the preheated oven for 15 minutes. Reduce the heat to 350 degrees F (175 degrees C) and continue baking until a knife inserted into the center comes out clean, about 40 minutes more. Let cool completely before serving, about 1 hour."},{"recipe_directions":"Double-check the pie crust ingredients if cooking for someone with allergies. Make it lighter by replacing 1/2 of the sugar with Splenda artificial sweetener."},{"recipe_directions":"You can make your own vegan pie crust with shortening, vegan margarine, or oil."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Pies"},{"recipe_tags":"Pumpkin Pie Recipes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"230\nCalories\n\n\n9g \nFat\n\n\n35g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699656401-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lTX0dXv1Z1mM-eypsZVq3mDuftw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3466687-d02e07a14d654efa8de6b92bec2d16e9.jpg"
@@ -1369,59 +1638,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244622/mint-chip-coconut-milk-ice-cream/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Vegan Mint Chocolate Chip Ice Cream</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 3 hrs\n\n\nTotal Time:\n 3 hrs 10 mins\n\n\nServings:\n8 \n\n\nYield:\n4 cups"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"24 fluid ounces canned coconut milk\n\n\n⅓ cup agave syrup, or to taste\n\n\n1 teaspoon peppermint extract, or to taste\n\n\n3 ounces dark chocolate, chopped into small pieces"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '24 fluid ounces canned coconut milk\n\n\n⅓ cup agave syrup, or to taste\n\n\n1 teaspoon peppermint extract, or to taste\n\n\n3 ounces dark chocolate, chopped into small pieces'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Chill coconut milk, agave syrup, peppermint extract, and dark chocolate prior to preparing to quicken the freezing process."},{"recipe_directions":"Blend coconut milk in a blender until smooth and evenly mixed; add agave syrup and peppermint extract and blend until smooth."},{"recipe_directions":"Transfer coconut milk mixture to an ice cream maker and follow the manufacturer's instructions for ice cream, adding chocolate pieces when indicated. Freeze for 2 hours before serving."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Frozen Dessert Recipes"},{"recipe_tags":"Ice Cream"},{"recipe_tags":"Chocolate Ice Cream Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"269\nCalories\n\n\n22g \nFat\n\n\n19g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699656404-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9KHSa4eTRzmzIjqu5fXQ8pu0UAg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(851x0:853x2):format(webp)/5921179-14d33516a0c6411986d42e5294efe771.jpg"
@@ -1434,59 +1699,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/255960/vegan-pumpkin-cookies/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Vegan Pumpkin Cookies</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n20 \n\n\nYield:\n20 cookies"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n1 (15 ounce) can pumpkin purée\n\n\n1 ⅓ cups white sugar\n\n\n⅓ cup vanilla-flavored almond milk\n\n\n¼ cup vegetable oil\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon salt\n\n\n½ teaspoon cinnamon sugar"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n1 (15 ounce) can pumpkin purée\n\n\n1 ⅓ cups white sugar\n\n\n⅓ cup vanilla-flavored almond milk\n\n\n¼ cup vegetable oil\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon salt\n\n\n½ teaspoon cinnamon sugar'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Mix flour, pumpkin purée, sugar, almond milk, vegetable oil, baking soda, cinnamon, vanilla, salt, and cinnamon sugar together in a bowl until a smooth dough forms. Spoon dough, about 1 tablespoon per cookie, onto a baking sheet."},{"recipe_directions":"Bake in the preheated oven until beginning to crisp along the edges, 10 to 12 minutes. Cool cookies on the baking sheet for 2 minutes before transferring to a wire rack to cool completely."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Pumpkin Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"131\nCalories\n\n\n3g \nFat\n\n\n25g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699656407-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_iv4cN4odtCSB5kuf4-U1eWFvTI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(557x0:559x2):format(webp)/9426702-fb9df56ce20b41a29c6ff892930053a7.jpg"
@@ -1499,59 +1760,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261976/vegan-cake-mix-cookies/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Vegan Cake Mix Cookies</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n30"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15.25 ounce) package chocolate cake mix\n\n\n1 (3.4 ounce) package instant chocolate pudding mix (Optional)\n\n\n2 tablespoons cornstarch\n\n\n½ cup vegetable oil\n\n\n¼ cup water, or more as needed\n\n\n1 cup vegan chocolate chips (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15.25 ounce) package chocolate cake mix\n\n\n1 (3.4 ounce) package instant chocolate pudding mix (Optional)\n\n\n2 tablespoons cornstarch\n\n\n½ cup vegetable oil\n\n\n¼ cup water, or more as needed\n\n\n1 cup vegan chocolate chips (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Combine cake mix, pudding mix, and cornstarch in a large bowl. Mix in oil and 1/4 cup water. Add additional water until batter is moist. Mix in chocolate chips."},{"recipe_directions":"Roll batter into balls and arrange on baking sheets."},{"recipe_directions":"Bake in the preheated oven until tops split, about 10 minutes. Cool on the baking sheets for 5 minutes before transferring to a cooling rack."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Cake Mix Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"148\nCalories\n\n\n9g \nFat\n\n\n18g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699656410-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZcT5_iHhvXXLCyiOMbkK857atCY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/881582-47d3e392255f4cdbbd2da06eda5e61d2.jpg"
@@ -1564,59 +1821,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20293/fried-cinnamon-strips/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Fried Cinnamon Strips</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n1 mins\n\n\nAdditional Time:\n19 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n36"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup white sugar\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n10 (8 inch) flour tortillas\n\n\n3 cups oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white sugar\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n10 (8 inch) flour tortillas\n\n\n3 cups oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine sugar, cinnamon, and nutmeg in a large resealable plastic bag. Seal and toss to mix."},{"recipe_directions":"Heat oil in a deep fryer or deep skillet to 375 degrees F (190 degrees C). Fry 4 or 5 tortilla strips until golden brown, about 30 seconds. Drain on paper towels."},{"recipe_directions":"While still warm, place fried tortillas in a bag and shake to coat with sugar mixture. Serve at once or store in an airtight container."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Desserts"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"82\nCalories\n\n\n3g \nFat\n\n\n13g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699656413-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ITu_L8LZAJrrTddTLCBGLkQnj8I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2048414-cdf1058115ac4f12b9b63185913498a4.jpg"
@@ -1629,59 +1882,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/174343/chocolate-banana-tofu-pudding/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Chocolate-Banana Tofu Pudding</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  banana, broken into chunks\n\n\n1 (12 ounce) package soft silken tofu\n\n\n¼ cup confectioners' sugar\n\n\n5 tablespoons unsweetened cocoa powder\n\n\n3 tablespoons soy milk\n\n\n1 pinch ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1  banana, broken into chunks\n\n\n1 (12 ounce) package soft silken tofu\n\n\n¼ cup confectioners' sugar\n\n\n5 tablespoons unsweetened cocoa powder\n\n\n3 tablespoons soy milk\n\n\n1 pinch ground cinnamon"}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place banana, tofu, sugar, cocoa powder, soy milk, and cinnamon into a blender. Cover, and puree until smooth."},{"recipe_directions":"Pour into individual serving dishes, and refrigerate for 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"},{"recipe_tags":"Protein"},{"recipe_tags":"Tofu"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"124\nCalories\n\n\n4g \nFat\n\n\n21g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699656416-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ye-C_xAY-K1tNxJWSFmw8O4TdLs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1093182-5dfff695c66a4eea8962c30d42266a1e.jpg"
@@ -1694,59 +1943,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19211/no-bake-chocolate-oatmeal-cookies/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>No-Bake Chocolate Oatmeal Cookies</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n24 \n\n\nYield:\n24 cookies"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅔ cup maple syrup\n\n\n¼ cup vegetable oil\n\n\n5 tablespoons unsweetened cocoa powder\n\n\n1 teaspoon ground cinnamon\n\n\n½ cup peanut butter\n\n\n1 cup rolled oats\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅔ cup maple syrup\n\n\n¼ cup vegetable oil\n\n\n5 tablespoons unsweetened cocoa powder\n\n\n1 teaspoon ground cinnamon\n\n\n½ cup peanut butter\n\n\n1 cup rolled oats\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a saucepan over medium heat, combine maple syrup, oil, cocoa, and cinnamon. Boil for 3 minutes, stirring constantly. Remove from heat and stir in peanut butter, rolled oats, and vanilla until well blended. Drop by heaping spoonfuls onto waxed paper and chill to set, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"No-Bake Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"91\nCalories\n\n\n5g \nFat\n\n\n10g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699656419-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wEh22N-WzyNI1ONCCV8_NNiB7kE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6555371-instant-pot-vegan-rice-pudding-Buckwheat-Queen-4x3-1-b8fae6c3cfcc4bfbaeb65c626a6d624b.jpg"
@@ -1760,59 +2005,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/270605/instant-pot-vegan-rice-pudding/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Instant Pot Vegan Rice Pudding</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups almond milk\n\n\n⅔ cup jasmine rice, rinsed\n\n\n⅓ cup granulated sugar\n\n\n½ teaspoon salt\n\n\n1 ½ teaspoons vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups almond milk\n\n\n⅔ cup jasmine rice, rinsed\n\n\n⅓ cup granulated sugar\n\n\n½ teaspoon salt\n\n\n1 ½ teaspoons vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine almond milk, rice, sugar, and salt in a multi-functional pressure cooker (such as Instant Pot). Close and lock the lid. Select high pressure according to manufacturer's instructions; set timer for 18 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure using the natural-release method according to the manufacturer's instructions, about 10 minutes. Unlock and remove the lid. Stir in vanilla extract. Serve warm or chilled. Rice pudding will thicken as it cools."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Rice"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"154\nCalories\n\n\n1g \nFat\n\n\n33g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699656422-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/B-PggtugGUfqmQKgT9eIVZJzBrM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/4579807-d5193e1221564f5c9c981c8a4fd66273.jpg"
@@ -1825,59 +2066,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/255507/vegan-pumpkin-pie/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Vegan Pumpkin Pie</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n 9 hrs\n\n\nTotal Time:\n 9 hrs 55 mins\n\n\nServings:\n8 \n\n\nYield:\n1 pie"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup vanilla-flavored almond milk\n\n\n½ cup raw sugar\n\n\n2 tablespoons arrowroot powder\n\n\n1 (15 ounce) can pumpkin puree\n\n\n2 teaspoons pumpkin pie spice\n\n\n½ teaspoon salt\n\n\n1 (9 inch) vegan pie shell (such as Wholly Wholesome®)"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup vanilla-flavored almond milk\n\n\n½ cup raw sugar\n\n\n2 tablespoons arrowroot powder\n\n\n1 (15 ounce) can pumpkin puree\n\n\n2 teaspoons pumpkin pie spice\n\n\n½ teaspoon salt\n\n\n1 (9 inch) vegan pie shell (such as Wholly Wholesome®)'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Combine almond milk, sugar, and arrowroot powder in a blender; blend until sugar and arrowroot are completely dissolved. Add pumpkin puree, pumpkin pie spice, and salt; blend until smooth. Pour into the pie shell. Cover edges of the pie shell with aluminum foil."},{"recipe_directions":"Bake in the preheated oven until center is set, about 40 minutes."},{"recipe_directions":"Cool pie to room temperature, about 1 hour. Refrigerate until firm, 8 hours to overnight."},{"recipe_directions":"Substitute soy milk for the almond milk if desired."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Pies"},{"recipe_tags":"Pumpkin Pie Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"202\nCalories\n\n\n8g \nFat\n\n\n31g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699656425-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/g4NssPeX8GuJhSSvvvw8vB5YqjI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(659x704:661x706):format(webp)/5943865-spicy-oven-roasted-plums-lutzflcat-4x3-1-7d669e106b4b43819cb8cbf930344ea2.jpg"
@@ -1891,59 +2128,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/147069/spicy-oven-roasted-plums/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Spicy Oven-Roasted Plums</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  plums, halved and pitted\n\n\n½ cup orange juice\n\n\n2 tablespoons packed brown sugar\n\n\n½ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground nutmeg\n\n\n⅛ teaspoon cumin\n\n\n⅛ teaspoon ground cardamom\n\n\n¼ cup toasted slivered almonds (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  plums, halved and pitted\n\n\n½ cup orange juice\n\n\n2 tablespoons packed brown sugar\n\n\n½ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground nutmeg\n\n\n⅛ teaspoon cumin\n\n\n⅛ teaspoon ground cardamom\n\n\n¼ cup toasted slivered almonds (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Grease a shallow baking dish with cooking spray."},{"recipe_directions":"Place plums, cut-side up, in a single layer in the prepared baking dish."},{"recipe_directions":"Whisk together orange juice, brown sugar, cinnamon, nutmeg, cumin, and cardamom in a bowl; drizzle over plums."},{"recipe_directions":"Bake in the preheated oven until plums are hot and sauce is bubbly, about 20 minutes. Top with toasted almonds."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"113\nCalories\n\n\n4g \nFat\n\n\n19g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699656428-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tyNzyNsrpYWbB62QPrASoVFWCE8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1043272-abc-pudding-avocado-banana-chocolate-delight-Melissa-Goff-4x3-1-e7a44fdc5f3b453298a95872d9fd53fd.jpg"
@@ -1957,59 +2190,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220827/abc-pudding-avocado-banana-chocolate-delight/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>ABC Pudding - Avocado, Banana, Chocolate Delight</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  ripe avocado, peeled and pitted\n\n\n4  very ripe bananas\n\n\n¼ cup unsweetened cocoa powder, plus more for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  ripe avocado, peeled and pitted\n\n\n4  very ripe bananas\n\n\n¼ cup unsweetened cocoa powder, plus more for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place avocados, bananas, and cocoa powder in a blender; puree until smooth."},{"recipe_directions":"Pour pudding into serving bowls and sprinkle additional cocoa powder on top for garnish."},{"recipe_directions":"Chill in refrigerator for texture and flavor to develop, at least 1 hour."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Banana Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"132\nCalories\n\n\n6g \nFat\n\n\n23g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699656431-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PVdAnsdlBlSCYbu9oBXKZRlqcKQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1029279-fb5de87e8bd44a44be03e09816a75972.jpg"
@@ -2022,59 +2251,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231616/vegan-basic-vanilla-cake/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Vegan Basic Vanilla Cake</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n8 \n\n\nYield:\n1 8x8-inch pan"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup plain soy milk\n\n\n1 tablespoon apple cider vinegar\n\n\n1 ½ cups unbleached all-purpose flour\n\n\n1 cup white sugar\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n⅓ cup canola oil\n\n\n¼ cup water\n\n\n1 tablespoon lemon juice\n\n\n1 tablespoon vanilla extract\n\n\n¼ teaspoon almond extract"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup plain soy milk\n\n\n1 tablespoon apple cider vinegar\n\n\n1 ½ cups unbleached all-purpose flour\n\n\n1 cup white sugar\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n⅓ cup canola oil\n\n\n¼ cup water\n\n\n1 tablespoon lemon juice\n\n\n1 tablespoon vanilla extract\n\n\n¼ teaspoon almond extract'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease and flour an 8x8-inch baking dish."},{"recipe_directions":"Stir soy milk and vinegar together in a large glass measuring cup."},{"recipe_directions":"Whisk flour, sugar, baking soda, baking powder, and salt together in a bowl."},{"recipe_directions":"Briskly mix canola oil, water, lemon juice, vanilla extract, and almond extract into soy milk mixture using a fork. Stir soy milk mixture into flour mixture until batter is lump-free. Pour batter into the prepared baking dish."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted in the center of the cake comes out clean, about 35 minutes."},{"recipe_directions":"You can use all water in place of the soy milk, but the soy milk adds more flavor. Also, consider that for this to be truly vegan you must purchase sugar made without the use of animal byproduct which you can usually buy at your local, friendly health food market."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cakes"},{"recipe_tags":"White Cake Recipes"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"287\nCalories\n\n\n10g \nFat\n\n\n45g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699656434-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JA9lgfDlE19FOE6N6TmTBoLRxJc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Almond-and-Strawberry-Tahini-Ice-Cream-by-Angela-Sackett-Superhotmama-2000-b6fb3ad4e83245c09c3ea198310628d8.jpg"
@@ -2086,59 +2311,55 @@
 8 Daniel Fast Desserts</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/daniel-fast-desserts/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>8 Daniel Fast Desserts</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dessert and the Daniel Fast don't exactly go hand in hand. The entire idea behind this biblically-based fast is that you would set aside indulgences and focus on plant-based meals for 21 days as an act of worship and sacrifice. It's essentially a vegan diet that prohibits added sugars, refined carbs, caffeine, and alcohol (here you'll find a complete list of Daniel Fast-approved foods). All that being said, keeping cravings at bay can be difficult when you completely cut yourself off from any sort of sweet treat. These eight Daniel Fast desserts (we're using a loose definition of \"dessert\") feature healthy ingredients like fresh fruit and nuts to keep your sweet tooth satisfied."},{"recipe_directions":"While you may not be able to indulge in chocolate-chip cookies on the Daniel Fast, these healthy cookies will curb your cravings in the meantime. Ripe bananas, oats, and dates make up the bulk of these chewy cookies. Reviewer SHASTASHEEN says, \"This is a great recipe, the cookies were moist, chewy, and very sweet despite being sugar-free.\""},{"recipe_directions":"Yep, you can have ice cream on the Daniel Fast. This homemade ice cream is dairy-free and free of added sugars."},{"recipe_directions":"While this might not be a dessert per say, the air fryer brings a nice crisp to otherwise plain fruit. \"Roasted pineapple is a delicious addition to so many dishes,\" says recipe creator Yoly."},{"recipe_directions":"Indulge yourself in a loaf of spiced banana bread without any of the guilt. This vegan recipe is free of any added sugar. Reviewer Aishakb raves, \"This will become a regular of mine for family or holidays!\""},{"recipe_directions":"\"Healthier than flour and sugar recipes, these muffins are naturally sweet, filling, egg-free, and protein-rich. Kid-tested and approved,\" says recipe creator Fran Purdhomme."},{"recipe_directions":"When you're on a restrictive diet like the Daniel Fast, smoothies absolutely count as a dessert. Unlike other smoothies that often call for dairy or sweeteners, this recipe is made entirely with fruit and 100-percent fruit juice."},{"recipe_directions":"Swap high-sugar candy bars for this healthy snack bar made with slivered almonds, flaked coconut, dates, and cashews. Plus they'll give you an energy boost. Take it from recipe creator Lacy Wilson who says, \"As an outdoor professional I take these in the back country and they need not be refrigerated and give great energy.\""},{"recipe_directions":"This recipe contains brown rice syrup, which some argue isn't Daniel Fast-approved because it constitutes as a sweetener. But if you're okay with brown rice syrup on the Daniel Fast, these peanut butter balls are the perfect way to curb your cravings. Reviewer Lisa Harwood-Stamper Burns made the recipe without brown rice syrup: \"...I made this recipe without the brown rice syrup, but with vanilla extract and a little almond extract.\""}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Desserts"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699656437-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Eh1DowWB2qeVR16j-TAn7A9Z6jM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1858x0:1860x2):format(webp)/6085102-d07295dea559454180ed50a1ec9934cd.jpg"
@@ -2151,59 +2372,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237859/oatmeal-chia-seed-cookies/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Oatmeal Chia Seed Cookies</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n12 \n\n\nYield:\n12 cookies"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups rolled oats\n\n\n1 cup brown sugar\n\n\n⅔ cup whole wheat flour\n\n\n2 tablespoons chia seeds\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n⅔ cup applesauce\n\n\n3 tablespoons coconut oil\n\n\n1 cup dried cranberries\n\n\n½ cup chocolate chips (Optional)\n\n\n¼ cup shredded unsweetened coconut (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups rolled oats\n\n\n1 cup brown sugar\n\n\n⅔ cup whole wheat flour\n\n\n2 tablespoons chia seeds\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n⅔ cup applesauce\n\n\n3 tablespoons coconut oil\n\n\n1 cup dried cranberries\n\n\n½ cup chocolate chips (Optional)\n\n\n¼ cup shredded unsweetened coconut (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Combine oats, brown sugar, flour, chia seeds, cinnamon, baking soda, baking powder, and salt in a bowl. Stir applesauce and coconut oil into oat mixture until dough is evenly mixed. Fold cranberries, chocolate chips, and coconut into dough. Spoon dough onto the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until edges of cookies are lightly browned, 10 to 15 minutes."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Desserts"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"262\nCalories\n\n\n8g \nFat\n\n\n47g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699656441-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/htA2DjVT6jY9yPTVKGCjuNUWDlA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/9404216-88506d1691af4427b743285d0b5560d2.jpg"
@@ -2216,59 +2433,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231619/orange-vegan-cake/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Orange Vegan Cake</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n16 \n\n\nYield:\n1 8x8-inch pan"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large orange, peeled\n\n\n1 ½ cups all-purpose flour\n\n\n1 cup white sugar\n\n\n½ cup vegetable oil\n\n\n1 ½ teaspoons baking soda\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large orange, peeled\n\n\n1 ½ cups all-purpose flour\n\n\n1 cup white sugar\n\n\n½ cup vegetable oil\n\n\n1 ½ teaspoons baking soda\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Grease an 8x8-inch baking pan."},{"recipe_directions":"Blend orange in the blender until liquified; measure 1 cup orange juice."},{"recipe_directions":"Whisk orange juice, flour, sugar, vegetable oil, baking soda, and salt together in a bowl. Pour batter into the prepared pan."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted in the center of the cake comes out clean, about 30 minutes."},{"recipe_directions":"Substitute 1 cup store-bought orange juice for the blended orange if desired."},{"recipe_directions":"For a plain cake, use 1 scant cup soy milk, rice milk, or water instead of the orange pulp/juice."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Orange Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"157\nCalories\n\n\n7g \nFat\n\n\n23g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699656445-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PSswqGecttGnYXubLUJel3wnu5E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(499x0:501x2):format(webp)/4541446-bd8844bc8ebe41839ad408ccdd4cf167.jpg"
@@ -2281,59 +2494,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/27184/apples-by-the-fire/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Apples by the Fire</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  Granny Smith apple, cored\n\n\n1 tablespoon brown sugar\n\n\n¼ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  Granny Smith apple, cored\n\n\n1 tablespoon brown sugar\n\n\n¼ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill the core of the apple with the brown sugar and cinnamon. Wrap the apple in a large piece of heavy foil, twisting the extra foil into a tail for a handle. Place the apple in the coals of a campfire or barbeque and let cook 5 to 10 minutes, until softened. Remove and unwrap, being careful of the hot sugar."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Apple Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"114\nCalories\n\n\n31g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699656448-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BQE_XKBBbBGeVaP_ngm7vsCS3SU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/5009195-de4798ea66234860a05dbe90d1c0eac6.jpg"
@@ -2346,59 +2555,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261805/easy-vegan-gingerbread-cookies/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Easy Vegan Gingerbread Cookies</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 40 mins\n\n\nServings:\n24 \n\n\nYield:\n2 dozen"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon ground ginger\n\n\n½ teaspoon ground allspice\n\n\n¼ teaspoon salt\n\n\n½ cup coconut oil, at room temperature\n\n\n⅓ cup molasses\n\n\n¼ cup white sugar\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon ground ginger\n\n\n½ teaspoon ground allspice\n\n\n¼ teaspoon salt\n\n\n½ cup coconut oil, at room temperature\n\n\n⅓ cup molasses\n\n\n¼ cup white sugar\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"These vegan gingerbread cookies are made without eggs or dairy products, but they're just as delicious as any gingerbread cookie you've ever tried!"},{"recipe_directions":"These are the ingredients you'll need to make this flavorful vegan gingerbread cookie recipe:"},{"recipe_directions":"· Flour: These easy vegan gingerbread cookies start with all-purpose flour.\n· Leaveners: Baking soda and baking powder act as leaveners, which means they help the cookies rise.\n· Spices: These festive cookies are spiced with cinnamon, ginger, and allspice. A pinch of salt enhances the overall flavor, but won't make your cookies taste salty.\n· Coconut oil: Since this recipe is vegan, it calls for coconut oil instead of butter or shortening.\n· Molasses: Use molasses to deepen the spicy flavor of these vegan gingerbread cookies.\n· Sugar: White sugar sweetens things up a bit, balancing out the deeper flavors from the molasses and spices.\n· Vanilla: A dash of vanilla extract adds complexity and enhances the flavor."},{"recipe_directions":"You'll find the full, step-by-step recipe below — but here's a brief overview of what you can expect when you make these vegan gingerbread cookies:"},{"recipe_directions":"1. Make and chill the dough: Sift the dry ingredients together. Beat the wet ingredients in a separate bowl. Gradually add the dry mixture to the wet mixture to make dough. Wrap the dough in storage wrap and refrigerate for two hours.\n2. Roll and cut the dough: Roll the chilled dough out onto a floured surface. Use a floured cookie cutter to cut the dough into your desired shapes.\n3. Bake the cookies: Place the cut cookie dough on lined baking sheets. Bake in a preheated oven until firm and cool completely on wire racks."},{"recipe_directions":"Tip: If you plan to decorate your cookies, check out our Dairy-Free Vanilla Icing recipe!"},{"recipe_directions":"Store your leftover vegan gingerbread cookies in an airtight container at room temperature for up to four days."},{"recipe_directions":"Yes! You can freeze baked or unbaked vegan gingerbread cookies."},{"recipe_directions":"· Arrange the (uniced) baked cookies on a baking sheet and freeze them for a few hours or up to overnight. When they're frozen solid, transfer them to an airtight container or zip-top bag. Freeze for up to one month. Thaw in the refrigerator, then decorate as desired.\n· To freeze cookie dough, arrange the dough balls on a baking sheet and freeze them for a few hours or up to overnight. When they're frozen solid, transfer them to an airtight container or zip-top bag. Freeze for up to two months. Follow the recipe when you're ready to eat them, but add a few minutes to the bake time to account for the frozen temperature."},{"recipe_directions":"\"Wonderful,\" raves Riley. \"Super easy and tasty. I used soy-free, dairy-free 'butter' instead of coconut oil.\""},{"recipe_directions":"\"We cooked [the dough] for 9 minutes because I prefer a chewier cookie and they were amazing,\" says Sarah Driscoll. \"Be sure not to roll the dough too thin.\""},{"recipe_directions":"\"I followed the directions exactly and these cookies were delicious,\" according to Sara Baird. \"For me, ½-inch thickness was easier to cut and made cleaner cut cookies.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Sift flour, baking powder, cinnamon, baking soda, ginger, allspice, and salt into a bowl."},{"recipe_directions":"Beat coconut oil, molasses, and sugar in a separate bowl with an electric mixer on medium speed until well-combined; add vanilla extract. Stir in flour mixture and mix to form a sticky dough, about 2 minutes. Wrap dough in plastic wrap and chill for 2 hours."},{"recipe_directions":"When ready to bake, preheat the oven to 350 degrees F (175 degrees C). Line 2 baking sheets with parchment paper."},{"recipe_directions":"Roll out dough on a floured surface to a thickness of 1/4 inch. Cut dough into desired shapes with cookie cutters, dipping the cutters into flour as needed so they don't stick to the dough; place them on the prepared baking sheets."},{"recipe_directions":"Bake in the preheated oven until firm, about 8 to 10 minutes. Cool on the baking sheets briefly before transferring them to a wire rack to cool completely."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Gingerbread Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"90\nCalories\n\n\n5g \nFat\n\n\n12g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699656451-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BLg27cNIwXth18l4j3G9mC2gh4E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1067559-dbed15f2f2cc447698caa0490caa838e.jpg"
@@ -2411,59 +2616,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215595/ashure/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Ashure</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 45 mins\n\n\nAdditional Time:\n1 day\n\n\nTotal Time:\n1 day 1 hr 55 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups fine bulgur\n\n\n½ cup dry garbanzo beans\n\n\n½ cup dry white beans\n\n\n½ cup raisins\n\n\n15 cups water\n\n\n3 cups white sugar\n\n\n¼ cup dried apricots\n\n\n¼ cup orange peel, chopped\n\n\n5  whole cloves"},{"recipe_ingredients":"2 tablespoons sesame seeds, toasted\n\n\n2 tablespoons chopped walnuts\n\n\n2 tablespoons chopped pistachio nuts\n\n\n2 tablespoons dried currants\n\n\n1 tablespoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups fine bulgur\n\n\n½ cup dry garbanzo beans\n\n\n½ cup dry white beans\n\n\n½ cup raisins\n\n\n15 cups water\n\n\n3 cups white sugar\n\n\n¼ cup dried apricots\n\n\n¼ cup orange peel, chopped\n\n\n5  whole cloves'}, {'recipe_ingredients': '2 tablespoons sesame seeds, toasted\n\n\n2 tablespoons chopped walnuts\n\n\n2 tablespoons chopped pistachio nuts\n\n\n2 tablespoons dried currants\n\n\n1 tablespoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make pudding: Place bulgur, garbanzo beans, white beans, and raisins in 4 separate bowls and add water to cover. Let stand overnight."},{"recipe_directions":"The next day, combine garbanzo beans and white beans in a saucepan with water to cover. Bring to a boil; reduce heat to low and simmer, covered, until beans are tender, 1 to 1 1/2 hours. Drain and set aside."},{"recipe_directions":"Drain bulgur and transfer to a large saucepan. Add 15 cups water (3 quarts plus 3 cups) and bring to a boil. Reduce heat to low and simmer until tender, about 15 minutes, skimming and discarding any foam that appears."},{"recipe_directions":"When bulgur has thickened, stir in sugar and bring mixture to a boil. Add cooked beans to bulgur mixture. Stir in drained raisins, apricots, orange peel, and cloves. Reduce heat and simmer until pudding thickens and fruit is tender, about 15 minutes."},{"recipe_directions":"Pour pudding into individual serving bowls. Garnish with sesame seeds, walnuts, pistachios, currants, and cinnamon. Allow pudding to cool, then serve."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"390\nCalories\n\n\n3g \nFat\n\n\n88g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699656455-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1fzKw3NgqBQ-Q_2sDT8EcN2qJfA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2974032-7aa54fa0a1ff44edbb6c2641a525b1cd.jpg"
@@ -2476,59 +2677,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244779/amazing-healthy-dark-chocolate/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Amazing Healthy Dark Chocolate</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n24 \n\n\nYield:\n3 cups"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup coconut oil, melted\n\n\n1 cup unsweetened cocoa powder\n\n\n1 cup maple syrup"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup coconut oil, melted\n\n\n1 cup unsweetened cocoa powder\n\n\n1 cup maple syrup'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix coconut oil, cocoa powder, and maple syrup together in a bowl until evenly combined."},{"recipe_directions":""}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Candy Recipes"},{"recipe_tags":"Chocolate Candy Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"121\nCalories\n\n\n10g \nFat\n\n\n11g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699656458-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fyUS4Z18ZfMN8nRb1-53Sa5fjWw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3395153-69734346092c40388b289166acfb6b16.jpg"
@@ -2541,59 +2738,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20340/power-cookies/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Power Cookies</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n18 \n\n\nYield:\n18 cookies"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups rolled oats\n\n\n1 (15 ounce) can cannellini beans, drained and rinsed\n\n\n½ cup white sugar\n\n\n½ cup brown sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon ground cinnamon\n\n\n½ cup chopped pitted dates\n\n\n½ cup flaked coconut\n\n\n½ cup raisins\n\n\n½ cup chopped walnuts"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups rolled oats\n\n\n1 (15 ounce) can cannellini beans, drained and rinsed\n\n\n½ cup white sugar\n\n\n½ cup brown sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon ground cinnamon\n\n\n½ cup chopped pitted dates\n\n\n½ cup flaked coconut\n\n\n½ cup raisins\n\n\n½ cup chopped walnuts'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Grease cookie sheets. Grind the oats in a blender until resembling coarse flour."},{"recipe_directions":"In a medium bowl, mash beans to a smooth paste. Stir in the white sugar, brown sugar and vanilla until well blended. Combine the ground oats, baking powder, baking soda and cinnamon; blend into the bean mixture. Stir in the dates, coconut, raisins and walnuts. Drop dough by heaping spoonfuls onto the prepared cookie sheet."},{"recipe_directions":"Bake for 10 to 15 minutes in the preheated oven, until golden. Cool on baking sheets for 5 minutes then remove to wire racks to cool completely."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Fruit Cookie Recipes"},{"recipe_tags":"Date Cookies"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"180\nCalories\n\n\n4g \nFat\n\n\n33g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699656461-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KB9g1Ya_mh4l2eMpjucUOZo0tNo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1059x1139:1061x1141):format(webp)/5560798-coconut-date-bars-Kim-4x3-1-71d4d3bf677d4e8aa5b1176b74956994.jpg"
@@ -2607,59 +2800,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230870/coconut-date-bars/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Coconut Date Bars</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup slivered almonds\n\n\n½ cup flaked coconut\n\n\n10  pitted dates, or to taste\n\n\n¼ cup cashews, or to taste\n\n\n1 teaspoon coconut oil"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup slivered almonds\n\n\n½ cup flaked coconut\n\n\n10  pitted dates, or to taste\n\n\n¼ cup cashews, or to taste\n\n\n1 teaspoon coconut oil'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend almonds and coconut in a food processor; add dates and pulse until combined. Add cashews and coconut oil; pulse until mixture is thick and sticks together. Transfer to a sheet of waxed paper; form into a square, folding sides of waxed paper over the top. Refrigerate until solid, at least 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Fruit Cookie Recipes"},{"recipe_tags":"Date Cookies"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"249\nCalories\n\n\n17g \nFat\n\n\n23g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699656464-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KrurLImkS9gWxT5Vg89H235x6ZA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/8315042-3d627465106246ed8310661c8c0a3f9d.jpg"
@@ -2672,59 +2861,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263457/blueberry-chia-pudding-with-almond-milk/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Blueberry Chia Pudding with Almond Milk</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 10 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups almond milk\n\n\n6 tablespoons chia seeds, or more to taste\n\n\n⅓ cup fresh blueberries\n\n\n1 tablespoon maple syrup, or more to taste\n\n\n½ teaspoon vanilla extract\n\n\n1 pinch ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups almond milk\n\n\n6 tablespoons chia seeds, or more to taste\n\n\n⅓ cup fresh blueberries\n\n\n1 tablespoon maple syrup, or more to taste\n\n\n½ teaspoon vanilla extract\n\n\n1 pinch ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine almond milk, chia seeds, blueberries, maple syrup, vanilla extract, and cinnamon in a blender; blend until smooth. Pour into 3 ramekins or glasses."},{"recipe_directions":"Chill until set, 8 hours to overnight. Serve chilled."},{"recipe_directions":"You can use frozen blueberries instead of fresh or any other variety of fruit and berries."},{"recipe_directions":"For the sweetener, you can use almost anything you like and sweeten it to taste."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Chia Pudding"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"146\nCalories\n\n\n7g \nFat\n\n\n19g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699656470-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YIgrTqdKot6Bd8uk2jIIHA67Nmc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4576234-b8edd1f8e3f74094964309c8581a3a10.jpg"
@@ -2737,59 +2922,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263635/steamed-vegan-rice-cakes-banh-bo-hap/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Steamed Vegan Rice Cakes (Banh Bo Hap)</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 25 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups rice flour\n\n\n2 cups lukewarm water\n\n\n1 (14 ounce) can coconut milk\n\n\n1 cup white sugar\n\n\n4 teaspoons tapioca starch\n\n\n1 ½ teaspoons active dry yeast\n\n\n½ teaspoon vanilla extract\n\n\n¼ teaspoon salt\n\n\n2 teaspoons oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups rice flour\n\n\n2 cups lukewarm water\n\n\n1 (14 ounce) can coconut milk\n\n\n1 cup white sugar\n\n\n4 teaspoons tapioca starch\n\n\n1 ½ teaspoons active dry yeast\n\n\n½ teaspoon vanilla extract\n\n\n¼ teaspoon salt\n\n\n2 teaspoons oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk rice flour, water, coconut milk, sugar, tapioca starch, yeast, vanilla extract, and salt together in a bowl until smooth. Cover with a lid. Let batter rest until air bubbles rise to the surface, about 2 hours. Stir well."},{"recipe_directions":"Grease cake molds with oil. Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Place cake molds on top and pour batter into each, leaving 1 3/4 inches of space at the top for rising. Bring water to a boil. Cover and steam until a toothpick inserted into a cake comes out clean, about 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Vietnamese"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"334\nCalories\n\n\n9g \nFat\n\n\n61g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699656473-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/479S3D85fGLYM-GeP5g_63IRddI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/9356477-b2aa377fce6142c8995e67a1e07d49f4.jpg"
@@ -2802,59 +2983,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273221/vegan-chocolate-chip-cookies/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Vegan Chocolate Chip Cookies</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n36 \n\n\nYield:\n36 cookies"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup coconut oil\n\n\n1 cup brown sugar\n\n\n¼ cup almond milk\n\n\n1 tablespoon vanilla extract\n\n\n2 cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n1 cup vegan chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup coconut oil\n\n\n1 cup brown sugar\n\n\n¼ cup almond milk\n\n\n1 tablespoon vanilla extract\n\n\n2 cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n1 cup vegan chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Cream coconut oil and brown sugar together in a bowl with an electric mixer until thoroughly mixed, about 5 minutes. Mix in almond milk and vanilla until incorporated, 1 to 2 minutes."},{"recipe_directions":"Whisk flour, baking powder, baking soda, and salt together in a bowl. Add the flour mixture to the almond milk mixture, stirring until combined; dough will be crumbly. Fold in chocolate chips."},{"recipe_directions":"Roll the dough into tablespoon-sized balls and place on ungreased or parchment-lined baking sheets. Flatten each ball out a bit with your palm, pressing any crumbs back together."},{"recipe_directions":"Bake in the preheated oven until the edges are golden brown and set, about 8 minutes."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Chocolate Chip Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"109\nCalories\n\n\n6g \nFat\n\n\n15g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699656476-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HB-paGZrQRebHPBIqNZ1R9trylI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/6438167-a1df616792c943ef9fdc39e29db0a7db.jpg"
@@ -2867,59 +3044,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242234/maritime-war-cake/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Maritime War Cake</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n24 \n\n\nYield:\n24 servings"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups water\n\n\n2 cups raisins\n\n\n1 cup light molasses\n\n\n1 cup white sugar\n\n\n⅔ cup shortening\n\n\n3 cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n1 tablespoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n2 cups raisins\n\n\n1 cup light molasses\n\n\n1 cup white sugar\n\n\n⅔ cup shortening\n\n\n3 cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n1 tablespoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 325 degrees F (165 degrees C). Grease and flour a round tube pan or two loaf pans."},{"recipe_directions":"Bring water, raisins, molasses, sugar, and shortening to a boil in a saucepan; reduce heat to low and simmer until raisins are plump, about 5 minutes. Allow to cool."},{"recipe_directions":"Whisk flour, baking soda, and cinnamon together in a bowl. Stir flour mixture into raisin mixture until well combined; pour into prepared baking pan."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted near the center comes out clean, about 1 hour."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cakes"},{"recipe_tags":"Fruitcake Recipes"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"221\nCalories\n\n\n6g \nFat\n\n\n42g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699656479-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zymfhdhjcrsLjTPkBKdoQSNkTj8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/826-c636b862a30642f982a8d2ea617d7d47.jpg"
@@ -2932,59 +3105,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21000/homemade-marshmallows-ii/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Homemade Marshmallows II</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n12 mins\n\n\nAdditional Time:\n 7 hrs 18 mins\n\n\nTotal Time:\n 8 hrs\n\n\nServings:\n24 \n\n\nYield:\n24 large marshmallows"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups white sugar\n\n\n¼ cup corn syrup\n\n\n¼ teaspoon salt\n\n\n¾ cup water\n\n\n2 teaspoons vanilla extract\n\n\n1 cup confectioners' sugar for dusting"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "3 cups white sugar\n\n\n¼ cup corn syrup\n\n\n¼ teaspoon salt\n\n\n¾ cup water\n\n\n2 teaspoons vanilla extract\n\n\n1 cup confectioners' sugar for dusting"}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Generously coat a 9x13 dish with cooking spray."},{"recipe_directions":"In a large saucepan, combine sugar, corn syrup, salt and water. Heat to between 234 and 240 degrees F (112 to 116 degrees C), or until a small amount of syrup dropped into cold water forms a soft ball that flattens when removed from the water and placed on a flat surface. Remove from heat and beat with an electric mixer until stiff peaks form, 10 to 12 minutes. Stir in vanilla. Pour into prepared pan."},{"recipe_directions":"Chill in refrigerator 8 hours or overnight. To cut, loosen edges with a knife. Dust surface with confectioners' sugar, and turn out onto a waxed paper lined surface. Dust with confectioners' sugar again and cut with a knife."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Specialty Dessert Recipes"},{"recipe_tags":"Homemade Marshmallow Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"128\nCalories\n\n\n33g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699656483-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FWw1vtrIl_U4yTny0PUWEoj9TCM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1065776-df7f9558071c42baa387517d70b86d3e.jpg"
@@ -2997,59 +3166,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235259/vegan-pumpkin-pie-blondies/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Vegan Pumpkin Pie Blondies</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n36 \n\n\nYield:\n36 blondies"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n½ cup white sugar\n\n\n¼ cup brown sugar\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon ground cloves\n\n\n¼ teaspoon ground ginger\n\n\n¼ teaspoon ground nutmeg\n\n\n¼ teaspoon salt\n\n\n1 (15 ounce) can pumpkin puree\n\n\n3 ½ tablespoons canola oil\n\n\n1 tablespoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n½ cup white sugar\n\n\n¼ cup brown sugar\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon ground cloves\n\n\n¼ teaspoon ground ginger\n\n\n¼ teaspoon ground nutmeg\n\n\n¼ teaspoon salt\n\n\n1 (15 ounce) can pumpkin puree\n\n\n3 ½ tablespoons canola oil\n\n\n1 tablespoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This vegan pumpkin dessert will please everyone at your table. Even the pickiest eaters will love these vegan pumpkin pie blondies."},{"recipe_directions":"Get your grocery list ready! These are the ingredients you'll need to make this top-rated vegan pumpkin dessert:"},{"recipe_directions":"· Flour: These vegan pumpkin blondies start with all-purpose flour.\n· Sugar: This recipe calls for a blend of white sugar and brown sugar.\n· Leaveners: Baking soda and baking powder acts as leaveners, which means they help the blondies rise.\n· Spices: This vegan pumpkin dessert gets its cozy flavor from a blend of cinnamon, cloves, ginger, nutmeg, and a pinch of salt.\n· Pumpkin: Use store-bought or homemade pumpkin puree.\n· Oil: A neutral oil, like canola oil, adds moisture without imparting flavor.\n· Vanilla: A tablespoon of vanilla extract adds complexity and sweet flavor."},{"recipe_directions":"It's incredibly easy to make this vegan pumpkin dessert. You'll find the full, step-by-step recipe below — but here's a brief overview of what you can expect:"},{"recipe_directions":"1. Make the batter: Sift the dry ingredients together in a bowl, then add the wet ingredients. Mix until the batter is well-combined.\n2. Bake the blondies: Pour the batter into a prepared baking pan. Bake in a preheated oven until a toothpick inserted into the center comes out clean."},{"recipe_directions":"Store your leftover vegan pumpkin pie blondies in an airtight container in the fridge for up to five days."},{"recipe_directions":"\"Great recipe, and versatile too,\" according to Dr Jerry. \"I used fresh baked pumpkin flesh instead of canned, whole wheat flour, and sugar substitute — and the brownies were STILL great! Moist, just the right amount of sweet, and very satisfying.\""},{"recipe_directions":"\"I used melted coconut oil in place of the canola and I used 2 cups of gluten-free flour,\" says Amye. \"It turned out very nice and cake-like. I also drizzled powdered sugar icing over the whole thing which added a nice flavor.\""},{"recipe_directions":"\"Excellent,\" raves Martha Jane. \"Our vegan guest loved this, as did everyone else! Wonderful dessert. We made it with fresh pumpkin, rather than the canned pumpkin. Will definitely make this again!\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Lightly grease a 9-inch square baking pan."},{"recipe_directions":"Sift flour, white sugar, brown sugar, baking powder, baking soda, cinnamon, cloves, ginger, nutmeg, and salt together in a bowl. Add pumpkin puree, canola oil, and vanilla extract to the flour mixture and stir until a thick batter forms. Pour batter into the prepared baking pan."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted in the center comes out clean, 20 minutes."},{"recipe_directions":"Remove from the oven and cool completely before cutting into 1 1/2-inch squares."},{"recipe_directions":"Can be made into muffins with the addition of a 1/4 cup water, although cook time will change."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Brownie Recipes"},{"recipe_tags":"Blondie Recipes"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"61\nCalories\n\n\n2g \nFat\n\n\n11g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699656488-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/C4hKSGr7R_nknGyj40L6wW6o0W4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(392x495:394x497):format(webp)/3697280-walnut-date-balls-mommyluvs2cook-4x3-1-5363bac331c34fb2976c73af30c6aaea.jpg"
@@ -3063,59 +3228,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244155/walnut-date-balls/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Walnut Date Balls</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n12 \n\n\nYield:\n24 date balls"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups walnuts\n\n\n2 cups pitted Medjool dates\n\n\n1 cup shredded coconut\n\n\n1 tablespoon sesame oil\n\n\n1 teaspoon sea salt\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups walnuts\n\n\n2 cups pitted Medjool dates\n\n\n1 cup shredded coconut\n\n\n1 tablespoon sesame oil\n\n\n1 teaspoon sea salt\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Process walnuts, dates, coconut, sesame oil, sea salt, and vanilla extract together in a food processor until combined. Roll date mixture into bite-size balls; refrigerate until firm, about 1 hour."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Nut Dessert Recipes"},{"recipe_tags":"Walnut Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"232\nCalories\n\n\n14g \nFat\n\n\n28g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699656493-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XMmJVHmU3JgODXnCVNl64psUieo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3632133-2189394eda284fea90fe1b06f4b98372.jpg"
@@ -3128,59 +3289,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/200254/tofu-cheesecake/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Tofu Cheesecake</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n8 \n\n\nYield:\n1 to 9 - inch cheesecake"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (12 ounce) packages extra firm tofu, drained and cubed\n\n\n1 cup white sugar\n\n\n1 teaspoon vanilla extract\n\n\n¼ teaspoon salt\n\n\n¼ cup vegetable oil\n\n\n2 tablespoons lemon juice\n\n\n1 (9 inch) prepared graham cracker crust"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (12 ounce) packages extra firm tofu, drained and cubed\n\n\n1 cup white sugar\n\n\n1 teaspoon vanilla extract\n\n\n¼ teaspoon salt\n\n\n¼ cup vegetable oil\n\n\n2 tablespoons lemon juice\n\n\n1 (9 inch) prepared graham cracker crust'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"In a blender or food processor, combine tofu, sugar, vanilla, salt, vegetable oil, and lemon juice. Blend until smooth. Pour into the pie crust."},{"recipe_directions":"Bake in the preheated oven until slightly brown, 20 to 30 minutes. Remove from the oven to cool. Refrigerate until chilled."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"},{"recipe_tags":"Protein"},{"recipe_tags":"Tofu"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"371\nCalories\n\n\n18g \nFat\n\n\n46g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699656498-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cxJEBMssPR15bewEj2lGKcDsS-4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1553279-88986e70d41f4de7934c513fe66c93b1.jpg"
@@ -3193,59 +3350,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19000/sweet-candied-orange-and-lemon-peel/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Sweet Candied Orange and Lemon Peel</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 40 mins\n\n\nServings:\n12 \n\n\nYield:\n3 cups"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  lemon peels, cut into 1/4 inch strips\n\n\n4  orange peels, cut into 1/4 inch strips\n\n\n2 cups white sugar\n\n\n1 cup water\n\n\n⅓ cup white sugar for decoration"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  lemon peels, cut into 1/4 inch strips\n\n\n4  orange peels, cut into 1/4 inch strips\n\n\n2 cups white sugar\n\n\n1 cup water\n\n\n⅓ cup white sugar for decoration'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place lemon and orange peel in large saucepan and cover with water. Bring to a boil over high heat. Boil for 20 minutes, drain and set aside."},{"recipe_directions":"In medium saucepan, combine 2 cups sugar and 1 cup water. Bring to a boil and cook until mixture reaches thread stage, 230 degrees F (108 degrees C) on candy thermometer, or small amount dropped in cold water forms a soft thread. Stir in peel, reduce heat and simmer 5 minutes, stirring frequently. Drain."},{"recipe_directions":"Roll peel pieces, a few at a time, in remaining sugar. Let dry on wire rack several hours. Store in airtight container."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Desserts"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"154\nCalories\n\n\n40g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699656503-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/T90opTT3E7UFxppN7vEoTrnFMZA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1727x0:1729x2):format(webp)/5574042-73caba8012c148a3b40efe4863cdb8af.jpg"
@@ -3258,59 +3411,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245489/healthy-chocolate-pudding/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Healthy Chocolate Pudding</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n1 cup"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup almond milk\n\n\n¼ cup coconut sugar\n\n\n2 tablespoons cocoa powder\n\n\n1 ½ tablespoons cornstarch\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup almond milk\n\n\n¼ cup coconut sugar\n\n\n2 tablespoons cocoa powder\n\n\n1 ½ tablespoons cornstarch\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place almond milk, coconut sugar, cocoa powder, cornstarch, and vanilla extract in a saucepan over low heat. Stir together until thick and smooth, about 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Chocolate Pudding Recipes"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"142\nCalories\n\n\n2g \nFat\n\n\n31g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699656508-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/o87_GZOGgTgEGrLWmuY8KpFYsJk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6750673-strawberry-rhubarb-compote-France-C-4x3-1-84c3ac97d9fe468980b9671ad2613ea7.jpg"
@@ -3324,59 +3473,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274342/strawberry-rhubarb-compote/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Strawberry-Rhubarb Compote</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Cook Time:\n20 mins\n\n\nAdditional Time:\n40 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups chopped fresh strawberries\n\n\n2 cups chopped rhubarb\n\n\n⅓ cup brown sugar\n\n\n⅛ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups chopped fresh strawberries\n\n\n2 cups chopped rhubarb\n\n\n⅓ cup brown sugar\n\n\n⅛ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine chopped strawberries and rhubarb in a saucepan. Add sugar and salt; stir to coat evenly. Let sit until fruit has released its juices, about 10 minutes."},{"recipe_directions":"Bring fruit mixture to a light boil over medium heat. Reduce heat to medium-low and simmer, stirring occasionally, until fruit is soft and mixture has thickened, about 20 minutes. Remove from heat and let cool, about 30 minutes. Mixture will further thicken upon cooling. Place in a jar or storage container and refrigerate for up to a week."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Strawberry Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"27\nCalories\n\n\n0g \nFat\n\n\n7g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699656513-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tuUqpwE1bOXz74F7de1sZtHKbPo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1535x0:1537x2):format(webp)/5650713-7e5ab85bf4544ba1956535c6519a73b8.jpg"
@@ -3389,59 +3534,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267581/peach-sorbet/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Peach Sorbet</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 5 hrs 20 mins\n\n\nTotal Time:\n 5 hrs 40 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ripe peaches - peeled, pitted, and chopped\n\n\n2 tablespoons lemon juice\n\n\n½ cup water\n\n\n½ cup white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ripe peaches - peeled, pitted, and chopped\n\n\n2 tablespoons lemon juice\n\n\n½ cup water\n\n\n½ cup white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend peaches in a blender until smooth. Measure out 1 1/2 cups peach purée into a medium bowl. Stir in lemon juice immediately and refrigerate."},{"recipe_directions":"Combine water and sugar in a small saucepan and bring to a boil. Stir until sugar is dissolved, about 1 minute. Remove simple syrup from heat and let cool to room temperature, then refrigerate until chilled, about 1 hour."},{"recipe_directions":"Pour chilled peach purée and simple syrup into an ice cream maker and freeze according to the manufacturer's instructions, about 20 minutes. Transfer to an airtight container and freeze until firm, about 4 hours."},{"recipe_directions":"One way of knowing peaches are ripe is when the skins come off effortlessly."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Frozen Dessert Recipes"},{"recipe_tags":"Sorbet Recipes"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"60\nCalories\n\n\n15g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699656518-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fs39RDW1P6bbOXOTypNHF8Rkw9o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3710975-afa97990b9474f5bb649736c90fbf8cb.jpg"
@@ -3454,59 +3595,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254202/vegan-meringues/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Vegan Meringues</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n25 \n\n\nYield:\n50 meringues"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can chickpeas (garbanzo beans), undrained\n\n\n¼ teaspoon cream of tartar\n\n\n¾ cup white sugar\n\n\n½ teaspoon vanilla extract (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can chickpeas (garbanzo beans), undrained\n\n\n¼ teaspoon cream of tartar\n\n\n¾ cup white sugar\n\n\n½ teaspoon vanilla extract (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 210 degrees F (100 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Drain chickpeas, reserving 1/2 cup liquid from the can; save chickpeas for another use. Pour chickpea liquid into a large bowl and add cream of tartar. Beat with an electric mixer until soft peaks form. Add sugar, 1 tablespoon at a time, beating until glossy peaks form, about 20 minutes. Stir in vanilla."},{"recipe_directions":"Spoon mixture into a piping bag. Pipe into small circles, about 1 inch in diameter, onto the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until meringues are firm and separate easily from the parchment paper, about 90 minutes. Remove from the oven and allow to cool completely, at least 15 minutes."},{"recipe_directions":"You can use the cooking liquid from making chickpeas at home instead of using tinned. Simply strain well and be sure to cool the liquid to room temperature."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of chickpeas and chickpea liquid. The chickpeas are included in the nutrition information, though they are not part of this recipe."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Meringue Cookies"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"37\nCalories\n\n\n0g \nFat\n\n\n9g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699656523-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kmFjwVl9m4bVQJ8Nl4CZhgVdH2Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/5540294-da4b3c5ef4e84e8a97b556dfff4d947f.jpg"
@@ -3519,59 +3656,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/86390/strawberries-with-balsamic-vinegar/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Strawberries with Balsamic Vinegar</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"16 ounces fresh strawberries, hulled and large berries cut in half\n\n\n2 tablespoons balsamic vinegar\n\n\n¼ cup white sugar\n\n\n¼ teaspoon freshly ground black pepper, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '16 ounces fresh strawberries, hulled and large berries cut in half\n\n\n2 tablespoons balsamic vinegar\n\n\n¼ cup white sugar\n\n\n¼ teaspoon freshly ground black pepper, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place strawberries in a large bowl. Drizzle vinegar over strawberries, then sprinkle with sugar. Stir gently to combine. Cover and let sit at room temperature for at least 1 hour but no more than 4 hours."},{"recipe_directions":"Grind black pepper over strawberries just before serving."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Strawberry Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"60\nCalories\n\n\n0g \nFat\n\n\n15g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699656529-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uGwBMLIMFiRTAJK7Ln6_CXewcwM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2273084-b5bc220eb50c439a99ed30beab180b43.jpg"
@@ -3584,59 +3717,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19858/egg-free-brownies/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Egg-Free Brownies</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n20 \n\n\nYield:\n20 brownies"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup water\n\n\n2 ⅓ cups all-purpose flour, divided\n\n\n½ cup unsalted butter\n\n\n⅔ cup unsweetened cocoa powder\n\n\n2 cups white sugar\n\n\n1 teaspoon vanilla extract\n\n\n2 ½ teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n½ cup chopped walnuts (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n2 ⅓ cups all-purpose flour, divided\n\n\n½ cup unsalted butter\n\n\n⅔ cup unsweetened cocoa powder\n\n\n2 cups white sugar\n\n\n1 teaspoon vanilla extract\n\n\n2 ½ teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n½ cup chopped walnuts (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a 9x13-inch pan."},{"recipe_directions":"Combine water and 1/3 cup flour in a heavy saucepan over medium heat; cook, whisking constantly, until thick. Transfer mixture to a large mixing bowl and set aside to cool, 15 to 20 minutes."},{"recipe_directions":"Melt butter in a small saucepan over medium heat. Mix in cocoa until smooth; remove from the heat and let cool, about 15 minutes."},{"recipe_directions":"Combine remaining 2 cups flour, baking powder, and salt in a small bowl."},{"recipe_directions":"Add sugar and vanilla to cooled flour-water mixture; mix with an electric mixer until well combined. Add cocoa mixture and mix until incorporated. Add dry flour mixture and stir until just blended; fold in walnuts. Spread evenly in the prepared pan."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center comes out clean, 20 to 25 minutes. Cool before cutting into 20 squares."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Brownie Recipes"},{"recipe_tags":"Chocolate Brownie Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"179\nCalories\n\n\n5g \nFat\n\n\n33g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699656533-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kmLpl0yb_4Shr2iwqG3x2G5Mt5s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6932959-blackberry-compote-France-C-4x3-1-cc05b3d99b70492380b97af0138e60f3.jpg"
@@ -3650,59 +3779,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275370/blackberry-compote/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Blackberry Compote</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups fresh blackberries\n\n\n¼ cup white sugar\n\n\n1 teaspoon lemon juice\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups fresh blackberries\n\n\n¼ cup white sugar\n\n\n1 teaspoon lemon juice\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine blackberries, sugar, lemon juice, and salt in a saucepan. Toss to coat and let sit for 5 minutes."},{"recipe_directions":"Place the saucepan over medium-high heat and bring to a boil. Reduce the heat to medium and simmer until sauce has reduced and thickened slightly, 15 to 20 minutes."},{"recipe_directions":"Remove from the heat and cool for a few minutes before serving, or refrigerate for later use; it will thicken further as it cools."},{"recipe_directions":"If you prefer a more tart taste, use 2 tablespoons of sugar instead of 1/4 cup."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Lemon Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"20\nCalories\n\n\n0g \nFat\n\n\n5g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699656539-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JDRoTH6714i_AOvZKBjmDipeQ0Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/5009237-364e8346fdaa4ae18f286b9c66032217.jpg"
@@ -3715,59 +3840,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261803/perfect-vegan-sugar-cookies/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Perfect Vegan Sugar Cookies</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n30 \n\n\nYield:\n2 1/2 dozen"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n¾ cup white sugar\n\n\n½ cup vegan margarine (such as Earth Balance)\n\n\n1 teaspoon vanilla extract\n\n\n2 tablespoons coconut milk"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n¾ cup white sugar\n\n\n½ cup vegan margarine (such as Earth Balance)\n\n\n1 teaspoon vanilla extract\n\n\n2 tablespoons coconut milk'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Sift flour, baking soda, and salt into a bowl."},{"recipe_directions":"Beat sugar and vegan margarine in a mixing bowl with an electric mixer until creamy, about 2 minutes. Mix in vanilla. Stir in flour mixture until incorporated, then add coconut milk, 1 tablespoon at a time, until dough comes together. Wrap dough in plastic wrap and refrigerate for 30 minutes."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line two baking sheets with parchment paper."},{"recipe_directions":"Roll chilled dough on a floured surface to a thickness of 1/4 to 1/2 inch. Dip a cookie cutter in flour and cut out cookies, re-flouring as needed. Place cookies onto the prepared baking sheets."},{"recipe_directions":"Bake in the preheated oven until just turning golden, about 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Sugar Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"71\nCalories\n\n\n3g \nFat\n\n\n11g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699656544-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lPQXX1YAzcrgxlxbJz9Rr4K_MIU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1067196-f7fa8ecf361f4621b790b92c5acd8526.jpg"
@@ -3780,59 +3901,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20366/dairy-free-chocolate-pudding/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Dairy-Free Chocolate Pudding</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons cornstarch\n\n\n2 tablespoons water\n\n\n1 ½ cups soy milk\n\n\n¼ cup white sugar\n\n\n¼ cup unsweetened cocoa powder\n\n\n¼ teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons cornstarch\n\n\n2 tablespoons water\n\n\n1 ½ cups soy milk\n\n\n¼ cup white sugar\n\n\n¼ cup unsweetened cocoa powder\n\n\n¼ teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix cornstarch and water together in a small bowl until a paste forms."},{"recipe_directions":"Combine soy milk, sugar, cocoa, and vanilla in a large saucepan; stir in cornstarch paste until well combined. Cook over medium heat, stirring constantly, until boiling. Continue to cook and stir until mixture thickens, 3 to 5 minutes."},{"recipe_directions":"Remove from the heat and let cool for 5 minutes; pudding will continue to thicken as it cools. Cover and refrigerate until completely cool, 1 to 2 hours."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Chocolate Pudding Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"267\nCalories\n\n\n5g \nFat\n\n\n53g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699656552-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uGllPlVplj7iqSaSbc234d1g49w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1065642-f027023c0fba4973a29062aab8bef29b.jpg"
@@ -3845,59 +3962,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/234324/chocolate-avocado-pudding/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Chocolate Avocado Pudding</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large avocados - peeled, pitted, and cubed\n\n\n½ cup unsweetened cocoa powder\n\n\n½ cup brown sugar\n\n\n⅓ cup coconut milk\n\n\n2 teaspoons vanilla extract\n\n\n1 pinch ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large avocados - peeled, pitted, and cubed\n\n\n½ cup unsweetened cocoa powder\n\n\n½ cup brown sugar\n\n\n⅓ cup coconut milk\n\n\n2 teaspoons vanilla extract\n\n\n1 pinch ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend avocados, cocoa powder, brown sugar, coconut milk, vanilla, and cinnamon in a blender until smooth. Transfer pudding to a container with a lid, then refrigerate until chilled, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Chocolate Pudding Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"400\nCalories\n\n\n26g \nFat\n\n\n46g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699656560-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/P7JFrlUU19w3iY_-PrT33iLtw2M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5352615-chia-coconut-pudding-with-coconut-milk-Buckwheat-Queen-4x3-1-21f63206865841b480e600aa29262c3f.jpg"
@@ -3911,59 +4024,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237469/chia-coconut-pudding-with-coconut-milk/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Chia Coconut Pudding with Coconut Milk</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups sweetened coconut milk\n\n\n6 tablespoons unsweetened coconut milk\n\n\n1 tablespoon agave nectar, or more to taste\n\n\n½ teaspoon vanilla extract\n\n\n¼ teaspoon ground cinnamon\n\n\n1 pinch salt\n\n\n½ cup chia seeds\n\n\n½ cup diced fresh strawberries (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups sweetened coconut milk\n\n\n6 tablespoons unsweetened coconut milk\n\n\n1 tablespoon agave nectar, or more to taste\n\n\n½ teaspoon vanilla extract\n\n\n¼ teaspoon ground cinnamon\n\n\n1 pinch salt\n\n\n½ cup chia seeds\n\n\n½ cup diced fresh strawberries (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together sweetened and unsweetened coconut milks, agave nectar, vanilla extract, cinnamon, and salt in a bowl; stir in chia seeds. Allow mixture to soak until thickened, at least 20 minutes, or cover the bowl with plastic wrap and refrigerate overnight."},{"recipe_directions":"Stir pudding and top with strawberries."},{"recipe_directions":"You can substitute stevia or sugar for agave."},{"recipe_directions":"You can substitute milk, soy milk, or almond milk for coconut milk. However, this will change the flavor."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Desserts"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"243\nCalories\n\n\n22g \nFat\n\n\n11g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699656569-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XNf9xGZTOSs6XAnZ3Sb2jvIwFaQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(885x0:887x2):format(webp)/23421cherry-crispYoly4x3-e5c184d033ef498383e7c941b73a0896.jpg"
@@ -3977,59 +4086,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23421/cherry-crisp/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Cherry Crisp</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (21 ounce) can cherry pie filling\n\n\n⅔ cup brown sugar\n\n\n½ cup all-purpose flour\n\n\n½ cup rolled oats\n\n\n¾ teaspoon ground cinnamon\n\n\n¾ teaspoon ground nutmeg, or to taste\n\n\n⅓ cup melted butter\n\n\n¼ cup chopped pecans"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (21 ounce) can cherry pie filling\n\n\n⅔ cup brown sugar\n\n\n½ cup all-purpose flour\n\n\n½ cup rolled oats\n\n\n¾ teaspoon ground cinnamon\n\n\n¾ teaspoon ground nutmeg, or to taste\n\n\n⅓ cup melted butter\n\n\n¼ cup chopped pecans'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C.) Lightly grease a 2-quart baking dish."},{"recipe_directions":"Pour pie filling into the prepared baking dish; spread evenly."},{"recipe_directions":"Stir brown sugar, flour, oats, cinnamon, and nutmeg together in a medium bowl; mix in melted butter. Spread over cherry pie filling and sprinkle with chopped pecans."},{"recipe_directions":"Bake in the preheated oven until topping is golden brown, about 30 minutes. Allow to cool 15 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Crisps and Crumbles Recipes"},{"recipe_tags":"Cherry Crisps and Crumbles Recipes"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"362\nCalories\n\n\n14g \nFat\n\n\n57g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699656577-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1664/everyday-cooking/vegan/desserts/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JfDtbPnSfAfdU-KNjCV7S-8pwbg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(551x492:553x494):format(webp)/2385598-vegan-cupcakes-jcalliagas-1x1-1-3167c2e67b834943acca9bfa9564b786.jpg"
@@ -4043,42 +4148,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/155534/vegan-cupcakes/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Vegan Cupcakes</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n18 \n\n\nYield:\n18 cupcakes"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon apple cider vinegar\n\n\n1 ½ cups almond milk\n\n\n2 cups all-purpose flour\n\n\n1 cup white sugar\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n½ cup coconut oil, warmed until liquid\n\n\n1 ¼ teaspoons vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon apple cider vinegar\n\n\n1 ½ cups almond milk\n\n\n2 cups all-purpose flour\n\n\n1 cup white sugar\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n½ cup coconut oil, warmed until liquid\n\n\n1 ¼ teaspoons vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease two 12-cup muffin pans or line with 18 paper baking cups."},{"recipe_directions":"Pour apple cider vinegar into a 2-cup measuring cup. Fill with almond milk to make 1 1/2 cups. Let stand until curdled, about 5 minutes."},{"recipe_directions":"Whisk together flour, sugar, baking powder, baking soda, and salt in a large bowl. Whisk together almond milk mixture, coconut oil, and vanilla in a separate bowl. Pour wet ingredients into dry ingredients and stir just until blended. Spoon batter evenly into the prepared cups."},{"recipe_directions":"Bake in the preheated oven until tops spring back when lightly pressed, 15 to 20 minutes. Cool in the pan set over a wire rack."},{"recipe_directions":"Arrange cooled cupcakes on a serving platter. Frost with desired frosting."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cakes"},{"recipe_tags":"Cupcake Recipes"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"152\nCalories\n\n\n6g \nFat\n\n\n23g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>